--- a/data/trans_orig/P15E_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15E_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6491</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3287</v>
+        <v>3283</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10147</v>
+        <v>9666</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4301117694465617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2177962891639393</v>
+        <v>0.2175618455257692</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6723765001674997</v>
+        <v>0.6404890162581544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -762,19 +762,19 @@
         <v>10792</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6888</v>
+        <v>7017</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15050</v>
+        <v>14754</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3335959106869265</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2129359173178969</v>
+        <v>0.2168985324752539</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4652291784894496</v>
+        <v>0.4560645096578438</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -783,19 +783,19 @@
         <v>17283</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12056</v>
+        <v>12386</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22674</v>
+        <v>22563</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3642980711538905</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2541157822115123</v>
+        <v>0.261087733553129</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4779413513373249</v>
+        <v>0.4755968310897156</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3711</v>
+        <v>3510</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07155439848202626</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2459038450318211</v>
+        <v>0.2325674860589941</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -833,19 +833,19 @@
         <v>2997</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1095</v>
+        <v>1079</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6003</v>
+        <v>6113</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.09264833249491072</v>
+        <v>0.09264833249491071</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03383899758435429</v>
+        <v>0.03334915433050116</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1855519596225596</v>
+        <v>0.1889516250706626</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -854,19 +854,19 @@
         <v>4077</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2081</v>
+        <v>2000</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8341</v>
+        <v>7826</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.08593825028390335</v>
+        <v>0.08593825028390333</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04386708716906768</v>
+        <v>0.04215814883833436</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1758139425681138</v>
+        <v>0.1649527176455883</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>7520</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4354</v>
+        <v>4460</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10969</v>
+        <v>10723</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4983338320714121</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.288501512603751</v>
+        <v>0.295546355008214</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7268898073686831</v>
+        <v>0.7105527925471518</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -904,19 +904,19 @@
         <v>18561</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14314</v>
+        <v>14814</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23055</v>
+        <v>22825</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5737557568181629</v>
+        <v>0.5737557568181628</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4424795232300924</v>
+        <v>0.4579180940952705</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7126726095101168</v>
+        <v>0.7055693373213745</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -925,19 +925,19 @@
         <v>26081</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>20377</v>
+        <v>20864</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31406</v>
+        <v>31065</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5497636785622062</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4295314741166655</v>
+        <v>0.4397812271279522</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6619966648439635</v>
+        <v>0.6548203816686643</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>7220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3939</v>
+        <v>4100</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10485</v>
+        <v>11222</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3137327620846491</v>
+        <v>0.3137327620846493</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1711849598016034</v>
+        <v>0.178168676551835</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4556045989748865</v>
+        <v>0.4876237457653554</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -1050,19 +1050,19 @@
         <v>13310</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9507</v>
+        <v>9490</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18899</v>
+        <v>18534</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2349413311277636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1678061423181752</v>
+        <v>0.1675043371058541</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3335877082527556</v>
+        <v>0.3271489932925999</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>40</v>
@@ -1071,19 +1071,19 @@
         <v>20530</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15433</v>
+        <v>15493</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27088</v>
+        <v>26664</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2577009761037822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1937170944019135</v>
+        <v>0.1944750883753604</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3400113366447188</v>
+        <v>0.3346956157111552</v>
       </c>
     </row>
     <row r="9">
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3844</v>
+        <v>3885</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.04476275057880801</v>
+        <v>0.04476275057880803</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1670249136853472</v>
+        <v>0.168815191649686</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -1121,19 +1121,19 @@
         <v>6633</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3547</v>
+        <v>3316</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10610</v>
+        <v>10798</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1170798002691848</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06260944646117976</v>
+        <v>0.05853193277295449</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.187282393182805</v>
+        <v>0.190597580054506</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -1142,19 +1142,19 @@
         <v>7663</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12367</v>
+        <v>12506</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0961903411404794</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05473656806068158</v>
+        <v>0.05476131182769054</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1552357870376201</v>
+        <v>0.1569796313987882</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>14763</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11369</v>
+        <v>10846</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18412</v>
+        <v>17999</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6415044873365426</v>
+        <v>0.641504487336543</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4940378973695312</v>
+        <v>0.471283023831745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8000764912888483</v>
+        <v>0.7821338864573211</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>70</v>
@@ -1192,19 +1192,19 @@
         <v>36711</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31197</v>
+        <v>31317</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41682</v>
+        <v>42283</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6479788686030516</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5506601535289917</v>
+        <v>0.5527733167327598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7357322950942291</v>
+        <v>0.746336452181628</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -1213,19 +1213,19 @@
         <v>51474</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44773</v>
+        <v>44879</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57681</v>
+        <v>57655</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6461086827557384</v>
+        <v>0.6461086827557383</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.56200799275903</v>
+        <v>0.5633370570766981</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7240266365820184</v>
+        <v>0.723704107550198</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>13711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9456</v>
+        <v>9014</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19706</v>
+        <v>18890</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3598254527762362</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2481653996792983</v>
+        <v>0.236564874111348</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.517164079978138</v>
+        <v>0.4957579479211308</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>48</v>
@@ -1338,19 +1338,19 @@
         <v>24102</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18665</v>
+        <v>18476</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30632</v>
+        <v>30333</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2707987834328629</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2097092001973117</v>
+        <v>0.2075850412522814</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3441625189579326</v>
+        <v>0.3408007696185565</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>68</v>
@@ -1359,19 +1359,19 @@
         <v>37813</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>30246</v>
+        <v>29948</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>45898</v>
+        <v>45596</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.2974867363998938</v>
+        <v>0.2974867363998939</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2379555517531751</v>
+        <v>0.2356097560646251</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3610915057779139</v>
+        <v>0.3587216529417819</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>2110</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5231</v>
+        <v>5252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05537376340589534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01729937671840832</v>
+        <v>0.01755410201406675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1372761964041826</v>
+        <v>0.1378445680122045</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1409,19 +1409,19 @@
         <v>9630</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6055</v>
+        <v>5745</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14800</v>
+        <v>14329</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1081998253671151</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06802546767713892</v>
+        <v>0.06454395650963943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1662875658178871</v>
+        <v>0.160989634207688</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>23</v>
@@ -1430,19 +1430,19 @@
         <v>11740</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7719</v>
+        <v>7189</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17814</v>
+        <v>16998</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09236390263235722</v>
+        <v>0.09236390263235723</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06072569621617335</v>
+        <v>0.05655463422704566</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1401488082025733</v>
+        <v>0.1337298128095875</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>22283</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16445</v>
+        <v>16839</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26995</v>
+        <v>27215</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5848007838178685</v>
+        <v>0.5848007838178686</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.431573386854169</v>
+        <v>0.4419309500669605</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7084643805379055</v>
+        <v>0.7142238778586347</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -1480,19 +1480,19 @@
         <v>55272</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>48003</v>
+        <v>48615</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>61531</v>
+        <v>61589</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.621001391200022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5393378846593878</v>
+        <v>0.5462108746490849</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6913260718770544</v>
+        <v>0.6919747140118749</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>140</v>
@@ -1501,19 +1501,19 @@
         <v>77555</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>68893</v>
+        <v>70310</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>85647</v>
+        <v>86749</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6101493609677489</v>
+        <v>0.610149360967749</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5420027336758877</v>
+        <v>0.5531554003555508</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6738101538921515</v>
+        <v>0.6824838258778761</v>
       </c>
     </row>
     <row r="15">
